--- a/section_configuration_600_hollow.xlsx
+++ b/section_configuration_600_hollow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antig\PycharmProjects\sectionanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B159EC08-CCEF-4393-993E-4451EBAB8709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65730491-8FBF-4079-9EBE-5E7177F0CE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6705" yWindow="9030" windowWidth="19845" windowHeight="7395" xr2:uid="{71AF6A26-CBEA-44DB-BF41-AF44417DE945}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="19845" windowHeight="7395" xr2:uid="{71AF6A26-CBEA-44DB-BF41-AF44417DE945}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="32">
   <si>
     <t>Nmax</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>HollowRectangular</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>number of reinf total</t>
   </si>
   <si>
     <t>HollowCircular</t>
@@ -547,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8CE337-AE94-4521-B2D5-0FB17167591B}">
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B27" sqref="A27:XFD27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,7 +579,7 @@
     <col min="20" max="20" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -590,61 +596,67 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>2</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>3</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>5</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>6</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>7</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -658,57 +670,63 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-      <c r="J2">
-        <v>25</v>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="N2">
+        <v>0.01</v>
       </c>
       <c r="O2">
-        <f t="shared" ref="O2:O26" si="0">50*10^6</f>
-        <v>50000000</v>
-      </c>
-      <c r="P2" s="1">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="P2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Q2">
+        <f>40*10^6</f>
+        <v>40000000</v>
+      </c>
+      <c r="R2" s="1">
         <v>35000000000</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <f>ABS([1]Internal_forces!$B$41)</f>
         <v>7132200</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <f>[1]Internal_forces!$B$42</f>
         <v>55680</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <f>[1]Internal_forces!$B$43</f>
         <v>-16700</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <f>[1]Internal_forces!$B$44</f>
         <v>-11752.820014953613</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <f>[1]Internal_forces!$B$45</f>
         <v>83160</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <f>[1]Internal_forces!$B$46</f>
         <v>-68720</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <f>[1]Internal_forces!$B$47</f>
         <v>-48891.349792480469</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -722,1666 +740,1835 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>0.6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3">
+        <f>IF(K3=2,4,IF(K3=3,8,IF(K3=4,12,IF(K3=5,16))))</f>
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>25</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q27" si="0">50*10^6</f>
+        <v>50000000</v>
+      </c>
+      <c r="R3" s="1">
+        <v>35000000000</v>
+      </c>
+      <c r="S3">
+        <f>ABS([1]Internal_forces!$B$41)</f>
+        <v>7132200</v>
+      </c>
+      <c r="T3">
+        <f>[1]Internal_forces!$B$42</f>
+        <v>55680</v>
+      </c>
+      <c r="U3">
+        <f>[1]Internal_forces!$B$43</f>
+        <v>-16700</v>
+      </c>
+      <c r="V3">
+        <f>[1]Internal_forces!$B$44</f>
+        <v>-11752.820014953613</v>
+      </c>
+      <c r="W3">
+        <f>[1]Internal_forces!$B$45</f>
+        <v>83160</v>
+      </c>
+      <c r="X3">
+        <f>[1]Internal_forces!$B$46</f>
+        <v>-68720</v>
+      </c>
+      <c r="Y3">
+        <f>[1]Internal_forces!$B$47</f>
+        <v>-48891.349792480469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F4">
+        <v>0.6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
         <v>13</v>
       </c>
-      <c r="H3">
-        <v>0.15</v>
-      </c>
-      <c r="I3">
+      <c r="I4">
+        <v>0.2</v>
+      </c>
+      <c r="J4">
+        <f>IF(K4=2,4,IF(K4=3,8,IF(K4=4,12,IF(K4=5,16))))</f>
+        <v>16</v>
+      </c>
+      <c r="K4">
         <v>5</v>
       </c>
-      <c r="J3">
+      <c r="L4">
         <v>25</v>
       </c>
-      <c r="O3">
+      <c r="Q4">
         <f t="shared" si="0"/>
         <v>50000000</v>
       </c>
-      <c r="P3" s="1">
+      <c r="R4" s="1">
         <v>35000000000</v>
       </c>
-      <c r="Q3">
+      <c r="S4">
         <f>ABS([1]Internal_forces!$B$41)</f>
         <v>7132200</v>
       </c>
-      <c r="R3">
+      <c r="T4">
         <f>[1]Internal_forces!$B$42</f>
         <v>55680</v>
       </c>
-      <c r="S3">
+      <c r="U4">
         <f>[1]Internal_forces!$B$43</f>
         <v>-16700</v>
       </c>
-      <c r="T3">
+      <c r="V4">
         <f>[1]Internal_forces!$B$44</f>
         <v>-11752.820014953613</v>
       </c>
-      <c r="U3">
+      <c r="W4">
         <f>[1]Internal_forces!$B$45</f>
         <v>83160</v>
       </c>
-      <c r="V3">
+      <c r="X4">
         <f>[1]Internal_forces!$B$46</f>
         <v>-68720</v>
       </c>
-      <c r="W3">
+      <c r="Y4">
         <f>[1]Internal_forces!$B$47</f>
         <v>-48891.349792480469</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F5">
+        <v>0.6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
         <v>13</v>
       </c>
-      <c r="H4">
-        <v>0.15</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4">
-        <v>25</v>
-      </c>
-      <c r="O4">
+      <c r="I5">
+        <v>0.2</v>
+      </c>
+      <c r="J5">
+        <f>IF(K5=2,4,IF(K5=3,8,IF(K5=4,12,IF(K5=5,16))))</f>
+        <v>16</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>20</v>
+      </c>
+      <c r="Q5">
         <f t="shared" si="0"/>
         <v>50000000</v>
       </c>
-      <c r="P4" s="1">
+      <c r="R5" s="1">
         <v>35000000000</v>
       </c>
-      <c r="Q4">
+      <c r="S5">
         <f>ABS([1]Internal_forces!$B$41)</f>
         <v>7132200</v>
       </c>
-      <c r="R4">
+      <c r="T5">
         <f>[1]Internal_forces!$B$42</f>
         <v>55680</v>
       </c>
-      <c r="S4">
+      <c r="U5">
         <f>[1]Internal_forces!$B$43</f>
         <v>-16700</v>
       </c>
-      <c r="T4">
+      <c r="V5">
         <f>[1]Internal_forces!$B$44</f>
         <v>-11752.820014953613</v>
       </c>
-      <c r="U4">
+      <c r="W5">
         <f>[1]Internal_forces!$B$45</f>
         <v>83160</v>
       </c>
-      <c r="V4">
+      <c r="X5">
         <f>[1]Internal_forces!$B$46</f>
         <v>-68720</v>
       </c>
-      <c r="W4">
+      <c r="Y5">
         <f>[1]Internal_forces!$B$47</f>
         <v>-48891.349792480469</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F6">
+        <v>0.6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
         <v>13</v>
       </c>
-      <c r="H5">
-        <v>0.15</v>
-      </c>
-      <c r="I5">
+      <c r="I6">
+        <v>0.2</v>
+      </c>
+      <c r="J6">
+        <f>IF(K6=2,4,IF(K6=3,8,IF(K6=4,12,IF(K6=5,16))))</f>
+        <v>16</v>
+      </c>
+      <c r="K6">
         <v>5</v>
       </c>
-      <c r="J5">
-        <v>32</v>
-      </c>
-      <c r="O5">
+      <c r="L6">
+        <v>16</v>
+      </c>
+      <c r="Q6">
         <f t="shared" si="0"/>
         <v>50000000</v>
       </c>
-      <c r="P5" s="1">
+      <c r="R6" s="1">
         <v>35000000000</v>
       </c>
-      <c r="Q5">
+      <c r="S6">
         <f>ABS([1]Internal_forces!$B$41)</f>
         <v>7132200</v>
       </c>
-      <c r="R5">
+      <c r="T6">
         <f>[1]Internal_forces!$B$42</f>
         <v>55680</v>
       </c>
-      <c r="S5">
+      <c r="U6">
         <f>[1]Internal_forces!$B$43</f>
         <v>-16700</v>
       </c>
-      <c r="T5">
+      <c r="V6">
         <f>[1]Internal_forces!$B$44</f>
         <v>-11752.820014953613</v>
       </c>
-      <c r="U5">
+      <c r="W6">
         <f>[1]Internal_forces!$B$45</f>
         <v>83160</v>
       </c>
-      <c r="V5">
+      <c r="X6">
         <f>[1]Internal_forces!$B$46</f>
         <v>-68720</v>
       </c>
-      <c r="W5">
+      <c r="Y6">
         <f>[1]Internal_forces!$B$47</f>
         <v>-48891.349792480469</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F7">
+        <v>0.6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
         <v>13</v>
       </c>
-      <c r="H6">
-        <v>0.15</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>20</v>
-      </c>
-      <c r="O6">
+      <c r="I7">
+        <v>0.2</v>
+      </c>
+      <c r="J7">
+        <f>IF(K7=2,4,IF(K7=3,8,IF(K7=4,12,IF(K7=5,16))))</f>
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>25</v>
+      </c>
+      <c r="Q7">
         <f t="shared" si="0"/>
         <v>50000000</v>
       </c>
-      <c r="P6" s="1">
+      <c r="R7" s="1">
         <v>35000000000</v>
       </c>
-      <c r="Q6">
+      <c r="S7">
         <f>ABS([1]Internal_forces!$B$41)</f>
         <v>7132200</v>
       </c>
-      <c r="R6">
+      <c r="T7">
         <f>[1]Internal_forces!$B$42</f>
         <v>55680</v>
       </c>
-      <c r="S6">
+      <c r="U7">
         <f>[1]Internal_forces!$B$43</f>
         <v>-16700</v>
       </c>
-      <c r="T6">
+      <c r="V7">
         <f>[1]Internal_forces!$B$44</f>
         <v>-11752.820014953613</v>
       </c>
-      <c r="U6">
+      <c r="W7">
         <f>[1]Internal_forces!$B$45</f>
         <v>83160</v>
       </c>
-      <c r="V6">
+      <c r="X7">
         <f>[1]Internal_forces!$B$46</f>
         <v>-68720</v>
       </c>
-      <c r="W6">
+      <c r="Y7">
         <f>[1]Internal_forces!$B$47</f>
         <v>-48891.349792480469</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
         <v>28</v>
       </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F8">
+        <v>0.6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
         <v>13</v>
       </c>
-      <c r="H7">
-        <v>0.12</v>
-      </c>
-      <c r="I7">
+      <c r="I8">
+        <v>0.15</v>
+      </c>
+      <c r="J8">
+        <f>IF(K8=2,4,IF(K8=3,8,IF(K8=4,12,IF(K8=5,16))))</f>
+        <v>16</v>
+      </c>
+      <c r="K8">
         <v>5</v>
       </c>
-      <c r="J7">
-        <v>25</v>
-      </c>
-      <c r="O7">
+      <c r="L8">
+        <v>32</v>
+      </c>
+      <c r="Q8">
         <f t="shared" si="0"/>
         <v>50000000</v>
       </c>
-      <c r="P7" s="1">
+      <c r="R8" s="1">
         <v>35000000000</v>
       </c>
-      <c r="Q7">
+      <c r="S8">
         <f>ABS([1]Internal_forces!$B$41)</f>
         <v>7132200</v>
       </c>
-      <c r="R7">
+      <c r="T8">
         <f>[1]Internal_forces!$B$42</f>
         <v>55680</v>
       </c>
-      <c r="S7">
+      <c r="U8">
         <f>[1]Internal_forces!$B$43</f>
         <v>-16700</v>
       </c>
-      <c r="T7">
+      <c r="V8">
         <f>[1]Internal_forces!$B$44</f>
         <v>-11752.820014953613</v>
       </c>
-      <c r="U7">
+      <c r="W8">
         <f>[1]Internal_forces!$B$45</f>
         <v>83160</v>
       </c>
-      <c r="V7">
+      <c r="X8">
         <f>[1]Internal_forces!$B$46</f>
         <v>-68720</v>
       </c>
-      <c r="W7">
+      <c r="Y8">
         <f>[1]Internal_forces!$B$47</f>
         <v>-48891.349792480469</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
         <v>28</v>
       </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F9">
+        <v>0.6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
         <v>13</v>
       </c>
-      <c r="H8">
-        <v>0.12</v>
-      </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
-      <c r="J8">
+      <c r="I9">
+        <v>0.15</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9:J27" si="1">IF(K9=2,4,IF(K9=3,8,IF(K9=4,12,IF(K9=5,16))))</f>
+        <v>16</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
         <v>25</v>
       </c>
-      <c r="O8">
+      <c r="Q9">
         <f t="shared" si="0"/>
         <v>50000000</v>
       </c>
-      <c r="P8" s="1">
+      <c r="R9" s="1">
         <v>35000000000</v>
       </c>
-      <c r="Q8">
+      <c r="S9">
         <f>ABS([1]Internal_forces!$B$41)</f>
         <v>7132200</v>
       </c>
-      <c r="R8">
+      <c r="T9">
         <f>[1]Internal_forces!$B$42</f>
         <v>55680</v>
       </c>
-      <c r="S8">
+      <c r="U9">
         <f>[1]Internal_forces!$B$43</f>
         <v>-16700</v>
       </c>
-      <c r="T8">
+      <c r="V9">
         <f>[1]Internal_forces!$B$44</f>
         <v>-11752.820014953613</v>
       </c>
-      <c r="U8">
+      <c r="W9">
         <f>[1]Internal_forces!$B$45</f>
         <v>83160</v>
       </c>
-      <c r="V8">
+      <c r="X9">
         <f>[1]Internal_forces!$B$46</f>
         <v>-68720</v>
       </c>
-      <c r="W8">
+      <c r="Y9">
         <f>[1]Internal_forces!$B$47</f>
         <v>-48891.349792480469</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
         <v>28</v>
       </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F10">
+        <v>0.6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
         <v>13</v>
       </c>
-      <c r="H9">
-        <v>0.12</v>
-      </c>
-      <c r="I9">
+      <c r="I10">
+        <v>0.15</v>
+      </c>
+      <c r="J10">
+        <f>IF(K10=2,4,IF(K10=3,8,IF(K10=4,12,IF(K10=5,16))))</f>
+        <v>16</v>
+      </c>
+      <c r="K10">
         <v>5</v>
       </c>
-      <c r="J9">
-        <v>32</v>
-      </c>
-      <c r="O9">
+      <c r="L10">
+        <v>20</v>
+      </c>
+      <c r="Q10">
         <f t="shared" si="0"/>
         <v>50000000</v>
       </c>
-      <c r="P9" s="1">
+      <c r="R10" s="1">
         <v>35000000000</v>
       </c>
-      <c r="Q9">
+      <c r="S10">
         <f>ABS([1]Internal_forces!$B$41)</f>
         <v>7132200</v>
       </c>
-      <c r="R9">
+      <c r="T10">
         <f>[1]Internal_forces!$B$42</f>
         <v>55680</v>
       </c>
-      <c r="S9">
+      <c r="U10">
         <f>[1]Internal_forces!$B$43</f>
         <v>-16700</v>
       </c>
-      <c r="T9">
+      <c r="V10">
         <f>[1]Internal_forces!$B$44</f>
         <v>-11752.820014953613</v>
       </c>
-      <c r="U9">
+      <c r="W10">
         <f>[1]Internal_forces!$B$45</f>
         <v>83160</v>
       </c>
-      <c r="V9">
+      <c r="X10">
         <f>[1]Internal_forces!$B$46</f>
         <v>-68720</v>
       </c>
-      <c r="W9">
+      <c r="Y10">
         <f>[1]Internal_forces!$B$47</f>
         <v>-48891.349792480469</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
         <v>28</v>
       </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F11">
+        <v>0.6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
         <v>13</v>
       </c>
-      <c r="H10">
-        <v>0.12</v>
-      </c>
-      <c r="I10">
-        <v>5</v>
-      </c>
-      <c r="J10">
-        <v>20</v>
-      </c>
-      <c r="O10">
+      <c r="I11">
+        <v>0.15</v>
+      </c>
+      <c r="J11">
+        <f>IF(K11=2,4,IF(K11=3,8,IF(K11=4,12,IF(K11=5,16))))</f>
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>32</v>
+      </c>
+      <c r="Q11">
         <f t="shared" si="0"/>
         <v>50000000</v>
       </c>
-      <c r="P10" s="1">
+      <c r="R11" s="1">
         <v>35000000000</v>
       </c>
-      <c r="Q10">
+      <c r="S11">
         <f>ABS([1]Internal_forces!$B$41)</f>
         <v>7132200</v>
       </c>
-      <c r="R10">
+      <c r="T11">
         <f>[1]Internal_forces!$B$42</f>
         <v>55680</v>
       </c>
-      <c r="S10">
+      <c r="U11">
         <f>[1]Internal_forces!$B$43</f>
         <v>-16700</v>
       </c>
-      <c r="T10">
+      <c r="V11">
         <f>[1]Internal_forces!$B$44</f>
         <v>-11752.820014953613</v>
       </c>
-      <c r="U10">
+      <c r="W11">
         <f>[1]Internal_forces!$B$45</f>
         <v>83160</v>
       </c>
-      <c r="V10">
+      <c r="X11">
         <f>[1]Internal_forces!$B$46</f>
         <v>-68720</v>
       </c>
-      <c r="W10">
+      <c r="Y11">
         <f>[1]Internal_forces!$B$47</f>
         <v>-48891.349792480469</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
         <v>28</v>
       </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F12">
+        <v>0.6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
         <v>13</v>
       </c>
-      <c r="H11">
-        <v>0.1</v>
-      </c>
-      <c r="I11">
-        <v>5</v>
-      </c>
-      <c r="J11">
+      <c r="I12">
+        <v>0.15</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
         <v>25</v>
       </c>
-      <c r="O11">
+      <c r="Q12">
         <f t="shared" si="0"/>
         <v>50000000</v>
       </c>
-      <c r="P11" s="1">
+      <c r="R12" s="1">
         <v>35000000000</v>
       </c>
-      <c r="Q11">
+      <c r="S12">
         <f>ABS([1]Internal_forces!$B$41)</f>
         <v>7132200</v>
       </c>
-      <c r="R11">
+      <c r="T12">
         <f>[1]Internal_forces!$B$42</f>
         <v>55680</v>
       </c>
-      <c r="S11">
+      <c r="U12">
         <f>[1]Internal_forces!$B$43</f>
         <v>-16700</v>
       </c>
-      <c r="T11">
+      <c r="V12">
         <f>[1]Internal_forces!$B$44</f>
         <v>-11752.820014953613</v>
       </c>
-      <c r="U11">
+      <c r="W12">
         <f>[1]Internal_forces!$B$45</f>
         <v>83160</v>
       </c>
-      <c r="V11">
+      <c r="X12">
         <f>[1]Internal_forces!$B$46</f>
         <v>-68720</v>
       </c>
-      <c r="W11">
+      <c r="Y12">
         <f>[1]Internal_forces!$B$47</f>
         <v>-48891.349792480469</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
         <v>28</v>
       </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F13">
+        <v>0.6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
         <v>13</v>
       </c>
-      <c r="H12">
-        <v>0.1</v>
-      </c>
-      <c r="I12">
-        <v>4</v>
-      </c>
-      <c r="J12">
-        <v>25</v>
-      </c>
-      <c r="O12">
-        <f t="shared" ref="O12:O14" si="1">50*10^6</f>
+      <c r="I13">
+        <v>0.12</v>
+      </c>
+      <c r="J13">
+        <f>IF(K13=2,4,IF(K13=3,8,IF(K13=4,12,IF(K13=5,16))))</f>
+        <v>16</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>32</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
         <v>50000000</v>
       </c>
-      <c r="P12" s="1">
+      <c r="R13" s="1">
         <v>35000000000</v>
       </c>
-      <c r="Q12">
+      <c r="S13">
         <f>ABS([1]Internal_forces!$B$41)</f>
         <v>7132200</v>
       </c>
-      <c r="R12">
+      <c r="T13">
         <f>[1]Internal_forces!$B$42</f>
         <v>55680</v>
       </c>
-      <c r="S12">
+      <c r="U13">
         <f>[1]Internal_forces!$B$43</f>
         <v>-16700</v>
       </c>
-      <c r="T12">
+      <c r="V13">
         <f>[1]Internal_forces!$B$44</f>
         <v>-11752.820014953613</v>
       </c>
-      <c r="U12">
+      <c r="W13">
         <f>[1]Internal_forces!$B$45</f>
         <v>83160</v>
       </c>
-      <c r="V12">
+      <c r="X13">
         <f>[1]Internal_forces!$B$46</f>
         <v>-68720</v>
       </c>
-      <c r="W12">
+      <c r="Y13">
         <f>[1]Internal_forces!$B$47</f>
         <v>-48891.349792480469</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
         <v>28</v>
       </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="F14">
+        <v>0.6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
         <v>13</v>
       </c>
-      <c r="H13">
-        <v>0.1</v>
-      </c>
-      <c r="I13">
+      <c r="I14">
+        <v>0.12</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="K14">
         <v>5</v>
       </c>
-      <c r="J13">
-        <v>32</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="1"/>
+      <c r="L14">
+        <v>25</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
         <v>50000000</v>
       </c>
-      <c r="P13" s="1">
+      <c r="R14" s="1">
         <v>35000000000</v>
       </c>
-      <c r="Q13">
+      <c r="S14">
         <f>ABS([1]Internal_forces!$B$41)</f>
         <v>7132200</v>
       </c>
-      <c r="R13">
+      <c r="T14">
         <f>[1]Internal_forces!$B$42</f>
         <v>55680</v>
       </c>
-      <c r="S13">
+      <c r="U14">
         <f>[1]Internal_forces!$B$43</f>
         <v>-16700</v>
       </c>
-      <c r="T13">
+      <c r="V14">
         <f>[1]Internal_forces!$B$44</f>
         <v>-11752.820014953613</v>
       </c>
-      <c r="U13">
+      <c r="W14">
         <f>[1]Internal_forces!$B$45</f>
         <v>83160</v>
       </c>
-      <c r="V13">
+      <c r="X14">
         <f>[1]Internal_forces!$B$46</f>
         <v>-68720</v>
       </c>
-      <c r="W13">
+      <c r="Y14">
         <f>[1]Internal_forces!$B$47</f>
         <v>-48891.349792480469</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14">
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
         <v>28</v>
       </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="F15">
+        <v>0.6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
         <v>13</v>
       </c>
-      <c r="H14">
-        <v>0.1</v>
-      </c>
-      <c r="I14">
+      <c r="I15">
+        <v>0.12</v>
+      </c>
+      <c r="J15">
+        <f>IF(K15=2,4,IF(K15=3,8,IF(K15=4,12,IF(K15=5,16))))</f>
+        <v>16</v>
+      </c>
+      <c r="K15">
         <v>5</v>
       </c>
-      <c r="J14">
+      <c r="L15">
         <v>20</v>
       </c>
-      <c r="O14">
-        <f t="shared" si="1"/>
+      <c r="Q15">
+        <f t="shared" si="0"/>
         <v>50000000</v>
       </c>
-      <c r="P14" s="1">
+      <c r="R15" s="1">
         <v>35000000000</v>
       </c>
-      <c r="Q14">
+      <c r="S15">
         <f>ABS([1]Internal_forces!$B$41)</f>
         <v>7132200</v>
       </c>
-      <c r="R14">
+      <c r="T15">
         <f>[1]Internal_forces!$B$42</f>
         <v>55680</v>
       </c>
-      <c r="S14">
+      <c r="U15">
         <f>[1]Internal_forces!$B$43</f>
         <v>-16700</v>
       </c>
-      <c r="T14">
+      <c r="V15">
         <f>[1]Internal_forces!$B$44</f>
         <v>-11752.820014953613</v>
       </c>
-      <c r="U14">
+      <c r="W15">
         <f>[1]Internal_forces!$B$45</f>
         <v>83160</v>
       </c>
-      <c r="V14">
+      <c r="X15">
         <f>[1]Internal_forces!$B$46</f>
         <v>-68720</v>
       </c>
-      <c r="W14">
+      <c r="Y15">
         <f>[1]Internal_forces!$B$47</f>
         <v>-48891.349792480469</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
         <v>28</v>
       </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F16">
+        <v>0.6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
         <v>13</v>
       </c>
-      <c r="H15">
-        <v>0.1</v>
-      </c>
-      <c r="I15">
+      <c r="I16">
+        <v>0.12</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="K16">
         <v>4</v>
       </c>
-      <c r="J15">
+      <c r="L16">
         <v>32</v>
       </c>
-      <c r="O15">
+      <c r="Q16">
         <f t="shared" si="0"/>
         <v>50000000</v>
       </c>
-      <c r="P15" s="1">
+      <c r="R16" s="1">
         <v>35000000000</v>
       </c>
-      <c r="Q15">
+      <c r="S16">
         <f>ABS([1]Internal_forces!$B$41)</f>
         <v>7132200</v>
       </c>
-      <c r="R15">
+      <c r="T16">
         <f>[1]Internal_forces!$B$42</f>
         <v>55680</v>
       </c>
-      <c r="S15">
+      <c r="U16">
         <f>[1]Internal_forces!$B$43</f>
         <v>-16700</v>
       </c>
-      <c r="T15">
+      <c r="V16">
         <f>[1]Internal_forces!$B$44</f>
         <v>-11752.820014953613</v>
       </c>
-      <c r="U15">
+      <c r="W16">
         <f>[1]Internal_forces!$B$45</f>
         <v>83160</v>
       </c>
-      <c r="V15">
+      <c r="X16">
         <f>[1]Internal_forces!$B$46</f>
         <v>-68720</v>
       </c>
-      <c r="W15">
+      <c r="Y16">
         <f>[1]Internal_forces!$B$47</f>
         <v>-48891.349792480469</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
         <v>28</v>
       </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="F17">
+        <v>0.6</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
         <v>13</v>
       </c>
-      <c r="H16">
-        <v>0.1</v>
-      </c>
-      <c r="I16">
+      <c r="I17">
+        <v>0.12</v>
+      </c>
+      <c r="J17">
+        <f>IF(K17=2,4,IF(K17=3,8,IF(K17=4,12,IF(K17=5,16))))</f>
+        <v>12</v>
+      </c>
+      <c r="K17">
         <v>4</v>
       </c>
-      <c r="J16">
-        <v>20</v>
-      </c>
-      <c r="O16">
+      <c r="L17">
+        <v>25</v>
+      </c>
+      <c r="Q17">
         <f t="shared" si="0"/>
         <v>50000000</v>
       </c>
-      <c r="P16" s="1">
+      <c r="R17" s="1">
         <v>35000000000</v>
       </c>
-      <c r="Q16">
+      <c r="S17">
         <f>ABS([1]Internal_forces!$B$41)</f>
         <v>7132200</v>
       </c>
-      <c r="R16">
+      <c r="T17">
         <f>[1]Internal_forces!$B$42</f>
         <v>55680</v>
       </c>
-      <c r="S16">
+      <c r="U17">
         <f>[1]Internal_forces!$B$43</f>
         <v>-16700</v>
       </c>
-      <c r="T16">
+      <c r="V17">
         <f>[1]Internal_forces!$B$44</f>
         <v>-11752.820014953613</v>
       </c>
-      <c r="U16">
+      <c r="W17">
         <f>[1]Internal_forces!$B$45</f>
         <v>83160</v>
       </c>
-      <c r="V16">
+      <c r="X17">
         <f>[1]Internal_forces!$B$46</f>
         <v>-68720</v>
       </c>
-      <c r="W16">
+      <c r="Y17">
         <f>[1]Internal_forces!$B$47</f>
         <v>-48891.349792480469</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
         <v>28</v>
       </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="F18">
+        <v>0.6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
         <v>13</v>
       </c>
-      <c r="H17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I17">
+      <c r="I18">
+        <v>0.1</v>
+      </c>
+      <c r="J18">
+        <f>IF(K18=2,4,IF(K18=3,8,IF(K18=4,12,IF(K18=5,16))))</f>
+        <v>16</v>
+      </c>
+      <c r="K18">
         <v>5</v>
       </c>
-      <c r="J17">
+      <c r="L18">
         <v>32</v>
       </c>
-      <c r="O17">
+      <c r="Q18">
         <f t="shared" si="0"/>
         <v>50000000</v>
       </c>
-      <c r="P17" s="1">
+      <c r="R18" s="1">
         <v>35000000000</v>
       </c>
-      <c r="Q17">
+      <c r="S18">
         <f>ABS([1]Internal_forces!$B$41)</f>
         <v>7132200</v>
       </c>
-      <c r="R17">
+      <c r="T18">
         <f>[1]Internal_forces!$B$42</f>
         <v>55680</v>
       </c>
-      <c r="S17">
+      <c r="U18">
         <f>[1]Internal_forces!$B$43</f>
         <v>-16700</v>
       </c>
-      <c r="T17">
+      <c r="V18">
         <f>[1]Internal_forces!$B$44</f>
         <v>-11752.820014953613</v>
       </c>
-      <c r="U17">
+      <c r="W18">
         <f>[1]Internal_forces!$B$45</f>
         <v>83160</v>
       </c>
-      <c r="V17">
+      <c r="X18">
         <f>[1]Internal_forces!$B$46</f>
         <v>-68720</v>
       </c>
-      <c r="W17">
+      <c r="Y18">
         <f>[1]Internal_forces!$B$47</f>
         <v>-48891.349792480469</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18">
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
         <v>28</v>
       </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="F19">
+        <v>0.6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
         <v>13</v>
       </c>
-      <c r="H18">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I18">
+      <c r="I19">
+        <v>0.1</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="K19">
         <v>5</v>
       </c>
-      <c r="J18">
+      <c r="L19">
         <v>25</v>
       </c>
-      <c r="O18">
+      <c r="Q19">
         <f t="shared" si="0"/>
         <v>50000000</v>
       </c>
-      <c r="P18" s="1">
+      <c r="R19" s="1">
         <v>35000000000</v>
       </c>
-      <c r="Q18">
+      <c r="S19">
         <f>ABS([1]Internal_forces!$B$41)</f>
         <v>7132200</v>
       </c>
-      <c r="R18">
+      <c r="T19">
         <f>[1]Internal_forces!$B$42</f>
         <v>55680</v>
       </c>
-      <c r="S18">
+      <c r="U19">
         <f>[1]Internal_forces!$B$43</f>
         <v>-16700</v>
       </c>
-      <c r="T18">
+      <c r="V19">
         <f>[1]Internal_forces!$B$44</f>
         <v>-11752.820014953613</v>
       </c>
-      <c r="U18">
+      <c r="W19">
         <f>[1]Internal_forces!$B$45</f>
         <v>83160</v>
       </c>
-      <c r="V18">
+      <c r="X19">
         <f>[1]Internal_forces!$B$46</f>
         <v>-68720</v>
       </c>
-      <c r="W18">
+      <c r="Y19">
         <f>[1]Internal_forces!$B$47</f>
         <v>-48891.349792480469</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
         <v>28</v>
       </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="F20">
+        <v>0.6</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" t="s">
         <v>13</v>
       </c>
-      <c r="H19">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I19">
+      <c r="I20">
+        <v>0.1</v>
+      </c>
+      <c r="J20">
+        <f>IF(K20=2,4,IF(K20=3,8,IF(K20=4,12,IF(K20=5,16))))</f>
+        <v>16</v>
+      </c>
+      <c r="K20">
         <v>5</v>
       </c>
-      <c r="J19">
+      <c r="L20">
         <v>20</v>
       </c>
-      <c r="O19">
+      <c r="Q20">
         <f t="shared" si="0"/>
         <v>50000000</v>
       </c>
-      <c r="P19" s="1">
+      <c r="R20" s="1">
         <v>35000000000</v>
       </c>
-      <c r="Q19">
+      <c r="S20">
         <f>ABS([1]Internal_forces!$B$41)</f>
         <v>7132200</v>
       </c>
-      <c r="R19">
+      <c r="T20">
         <f>[1]Internal_forces!$B$42</f>
         <v>55680</v>
       </c>
-      <c r="S19">
+      <c r="U20">
         <f>[1]Internal_forces!$B$43</f>
         <v>-16700</v>
       </c>
-      <c r="T19">
+      <c r="V20">
         <f>[1]Internal_forces!$B$44</f>
         <v>-11752.820014953613</v>
       </c>
-      <c r="U19">
+      <c r="W20">
         <f>[1]Internal_forces!$B$45</f>
         <v>83160</v>
       </c>
-      <c r="V19">
+      <c r="X20">
         <f>[1]Internal_forces!$B$46</f>
         <v>-68720</v>
       </c>
-      <c r="W19">
+      <c r="Y20">
         <f>[1]Internal_forces!$B$47</f>
         <v>-48891.349792480469</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
         <v>28</v>
       </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="F21">
+        <v>0.6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
         <v>13</v>
       </c>
-      <c r="H20">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I20">
+      <c r="I21">
+        <v>0.1</v>
+      </c>
+      <c r="J21">
+        <f>IF(K21=2,4,IF(K21=3,8,IF(K21=4,12,IF(K21=5,16))))</f>
+        <v>12</v>
+      </c>
+      <c r="K21">
         <v>4</v>
       </c>
-      <c r="J20">
+      <c r="L21">
         <v>32</v>
       </c>
-      <c r="O20">
+      <c r="Q21">
         <f t="shared" si="0"/>
         <v>50000000</v>
       </c>
-      <c r="P20" s="1">
+      <c r="R21" s="1">
         <v>35000000000</v>
       </c>
-      <c r="Q20">
+      <c r="S21">
         <f>ABS([1]Internal_forces!$B$41)</f>
         <v>7132200</v>
       </c>
-      <c r="R20">
+      <c r="T21">
         <f>[1]Internal_forces!$B$42</f>
         <v>55680</v>
       </c>
-      <c r="S20">
+      <c r="U21">
         <f>[1]Internal_forces!$B$43</f>
         <v>-16700</v>
       </c>
-      <c r="T20">
+      <c r="V21">
         <f>[1]Internal_forces!$B$44</f>
         <v>-11752.820014953613</v>
       </c>
-      <c r="U20">
+      <c r="W21">
         <f>[1]Internal_forces!$B$45</f>
         <v>83160</v>
       </c>
-      <c r="V20">
+      <c r="X21">
         <f>[1]Internal_forces!$B$46</f>
         <v>-68720</v>
       </c>
-      <c r="W20">
+      <c r="Y21">
         <f>[1]Internal_forces!$B$47</f>
         <v>-48891.349792480469</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21">
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
         <v>28</v>
       </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="F22">
+        <v>0.6</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
         <v>13</v>
       </c>
-      <c r="H21">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I21">
+      <c r="I22">
+        <v>0.1</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="K22">
         <v>4</v>
       </c>
-      <c r="J21">
+      <c r="L22">
         <v>25</v>
       </c>
-      <c r="O21">
+      <c r="Q22">
         <f t="shared" si="0"/>
         <v>50000000</v>
       </c>
-      <c r="P21" s="1">
+      <c r="R22" s="1">
         <v>35000000000</v>
       </c>
-      <c r="Q21">
+      <c r="S22">
         <f>ABS([1]Internal_forces!$B$41)</f>
         <v>7132200</v>
       </c>
-      <c r="R21">
+      <c r="T22">
         <f>[1]Internal_forces!$B$42</f>
         <v>55680</v>
       </c>
-      <c r="S21">
+      <c r="U22">
         <f>[1]Internal_forces!$B$43</f>
         <v>-16700</v>
       </c>
-      <c r="T21">
+      <c r="V22">
         <f>[1]Internal_forces!$B$44</f>
         <v>-11752.820014953613</v>
       </c>
-      <c r="U21">
+      <c r="W22">
         <f>[1]Internal_forces!$B$45</f>
         <v>83160</v>
       </c>
-      <c r="V21">
+      <c r="X22">
         <f>[1]Internal_forces!$B$46</f>
         <v>-68720</v>
       </c>
-      <c r="W21">
+      <c r="Y22">
         <f>[1]Internal_forces!$B$47</f>
         <v>-48891.349792480469</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22">
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
         <v>28</v>
       </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="F23">
+        <v>0.6</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="s">
         <v>13</v>
       </c>
-      <c r="H22">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I22">
+      <c r="I23">
+        <v>0.1</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="K23">
         <v>4</v>
       </c>
-      <c r="J22">
+      <c r="L23">
         <v>20</v>
       </c>
-      <c r="O22">
+      <c r="Q23">
         <f t="shared" si="0"/>
         <v>50000000</v>
       </c>
-      <c r="P22" s="1">
+      <c r="R23" s="1">
         <v>35000000000</v>
       </c>
-      <c r="Q22">
+      <c r="S23">
         <f>ABS([1]Internal_forces!$B$41)</f>
         <v>7132200</v>
       </c>
-      <c r="R22">
+      <c r="T23">
         <f>[1]Internal_forces!$B$42</f>
         <v>55680</v>
       </c>
-      <c r="S22">
+      <c r="U23">
         <f>[1]Internal_forces!$B$43</f>
         <v>-16700</v>
       </c>
-      <c r="T22">
+      <c r="V23">
         <f>[1]Internal_forces!$B$44</f>
         <v>-11752.820014953613</v>
       </c>
-      <c r="U22">
+      <c r="W23">
         <f>[1]Internal_forces!$B$45</f>
         <v>83160</v>
       </c>
-      <c r="V22">
+      <c r="X23">
         <f>[1]Internal_forces!$B$46</f>
         <v>-68720</v>
       </c>
-      <c r="W22">
+      <c r="Y23">
         <f>[1]Internal_forces!$B$47</f>
         <v>-48891.349792480469</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23">
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
         <v>28</v>
       </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="F24">
+        <v>0.6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
         <v>13</v>
       </c>
-      <c r="H23">
-        <v>0.05</v>
-      </c>
-      <c r="I23">
+      <c r="I24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="K24">
         <v>5</v>
       </c>
-      <c r="J23">
-        <v>32</v>
-      </c>
-      <c r="O23">
+      <c r="L24">
+        <v>25</v>
+      </c>
+      <c r="Q24">
         <f t="shared" si="0"/>
         <v>50000000</v>
       </c>
-      <c r="P23" s="1">
+      <c r="R24" s="1">
         <v>35000000000</v>
       </c>
-      <c r="Q23">
+      <c r="S24">
         <f>ABS([1]Internal_forces!$B$41)</f>
         <v>7132200</v>
       </c>
-      <c r="R23">
+      <c r="T24">
         <f>[1]Internal_forces!$B$42</f>
         <v>55680</v>
       </c>
-      <c r="S23">
+      <c r="U24">
         <f>[1]Internal_forces!$B$43</f>
         <v>-16700</v>
       </c>
-      <c r="T23">
+      <c r="V24">
         <f>[1]Internal_forces!$B$44</f>
         <v>-11752.820014953613</v>
       </c>
-      <c r="U23">
+      <c r="W24">
         <f>[1]Internal_forces!$B$45</f>
         <v>83160</v>
       </c>
-      <c r="V23">
+      <c r="X24">
         <f>[1]Internal_forces!$B$46</f>
         <v>-68720</v>
       </c>
-      <c r="W23">
+      <c r="Y24">
         <f>[1]Internal_forces!$B$47</f>
         <v>-48891.349792480469</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24">
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
         <v>28</v>
       </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="F25">
+        <v>0.6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
         <v>13</v>
       </c>
-      <c r="H24">
-        <v>0.05</v>
-      </c>
-      <c r="I24">
+      <c r="I25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="K25">
         <v>5</v>
       </c>
-      <c r="J24">
-        <v>25</v>
-      </c>
-      <c r="O24">
+      <c r="L25">
+        <v>20</v>
+      </c>
+      <c r="Q25">
         <f t="shared" si="0"/>
         <v>50000000</v>
       </c>
-      <c r="P24" s="1">
+      <c r="R25" s="1">
         <v>35000000000</v>
       </c>
-      <c r="Q24">
+      <c r="S25">
         <f>ABS([1]Internal_forces!$B$41)</f>
         <v>7132200</v>
       </c>
-      <c r="R24">
+      <c r="T25">
         <f>[1]Internal_forces!$B$42</f>
         <v>55680</v>
       </c>
-      <c r="S24">
+      <c r="U25">
         <f>[1]Internal_forces!$B$43</f>
         <v>-16700</v>
       </c>
-      <c r="T24">
+      <c r="V25">
         <f>[1]Internal_forces!$B$44</f>
         <v>-11752.820014953613</v>
       </c>
-      <c r="U24">
+      <c r="W25">
         <f>[1]Internal_forces!$B$45</f>
         <v>83160</v>
       </c>
-      <c r="V24">
+      <c r="X25">
         <f>[1]Internal_forces!$B$46</f>
         <v>-68720</v>
       </c>
-      <c r="W24">
+      <c r="Y25">
         <f>[1]Internal_forces!$B$47</f>
         <v>-48891.349792480469</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
         <v>28</v>
       </c>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="F26">
+        <v>0.6</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
         <v>13</v>
       </c>
-      <c r="H25">
-        <v>0.05</v>
-      </c>
-      <c r="I25">
+      <c r="I26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="K26">
         <v>4</v>
       </c>
-      <c r="J25">
-        <v>32</v>
-      </c>
-      <c r="O25">
+      <c r="L26">
+        <v>25</v>
+      </c>
+      <c r="Q26">
         <f t="shared" si="0"/>
         <v>50000000</v>
       </c>
-      <c r="P25" s="1">
+      <c r="R26" s="1">
         <v>35000000000</v>
       </c>
-      <c r="Q25">
+      <c r="S26">
         <f>ABS([1]Internal_forces!$B$41)</f>
         <v>7132200</v>
       </c>
-      <c r="R25">
+      <c r="T26">
         <f>[1]Internal_forces!$B$42</f>
         <v>55680</v>
       </c>
-      <c r="S25">
+      <c r="U26">
         <f>[1]Internal_forces!$B$43</f>
         <v>-16700</v>
       </c>
-      <c r="T25">
+      <c r="V26">
         <f>[1]Internal_forces!$B$44</f>
         <v>-11752.820014953613</v>
       </c>
-      <c r="U25">
+      <c r="W26">
         <f>[1]Internal_forces!$B$45</f>
         <v>83160</v>
       </c>
-      <c r="V25">
+      <c r="X26">
         <f>[1]Internal_forces!$B$46</f>
         <v>-68720</v>
       </c>
-      <c r="W25">
+      <c r="Y26">
         <f>[1]Internal_forces!$B$47</f>
         <v>-48891.349792480469</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
         <v>28</v>
       </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="F27">
+        <v>0.6</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
         <v>13</v>
       </c>
-      <c r="H26">
-        <v>0.05</v>
-      </c>
-      <c r="I26">
+      <c r="I27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="K27">
         <v>4</v>
       </c>
-      <c r="J26">
-        <v>25</v>
-      </c>
-      <c r="O26">
+      <c r="L27">
+        <v>20</v>
+      </c>
+      <c r="Q27">
         <f t="shared" si="0"/>
         <v>50000000</v>
       </c>
-      <c r="P26" s="1">
+      <c r="R27" s="1">
         <v>35000000000</v>
       </c>
-      <c r="Q26">
+      <c r="S27">
         <f>ABS([1]Internal_forces!$B$41)</f>
         <v>7132200</v>
       </c>
-      <c r="R26">
+      <c r="T27">
         <f>[1]Internal_forces!$B$42</f>
         <v>55680</v>
       </c>
-      <c r="S26">
+      <c r="U27">
         <f>[1]Internal_forces!$B$43</f>
         <v>-16700</v>
       </c>
-      <c r="T26">
+      <c r="V27">
         <f>[1]Internal_forces!$B$44</f>
         <v>-11752.820014953613</v>
       </c>
-      <c r="U26">
+      <c r="W27">
         <f>[1]Internal_forces!$B$45</f>
         <v>83160</v>
       </c>
-      <c r="V26">
+      <c r="X27">
         <f>[1]Internal_forces!$B$46</f>
         <v>-68720</v>
       </c>
-      <c r="W26">
-        <f>[1]Internal_forces!$B$47</f>
-        <v>-48891.349792480469</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
-      <c r="K27">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="L27">
-        <v>0.01</v>
-      </c>
-      <c r="M27">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="N27">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="O27">
-        <f t="shared" ref="O27" si="2">40*10^6</f>
-        <v>40000000</v>
-      </c>
-      <c r="P27" s="1">
-        <v>35000000000</v>
-      </c>
-      <c r="Q27">
-        <f>ABS([1]Internal_forces!$B$41)</f>
-        <v>7132200</v>
-      </c>
-      <c r="R27">
-        <f>[1]Internal_forces!$B$42</f>
-        <v>55680</v>
-      </c>
-      <c r="S27">
-        <f>[1]Internal_forces!$B$43</f>
-        <v>-16700</v>
-      </c>
-      <c r="T27">
-        <f>[1]Internal_forces!$B$44</f>
-        <v>-11752.820014953613</v>
-      </c>
-      <c r="U27">
-        <f>[1]Internal_forces!$B$45</f>
-        <v>83160</v>
-      </c>
-      <c r="V27">
-        <f>[1]Internal_forces!$B$46</f>
-        <v>-68720</v>
-      </c>
-      <c r="W27">
+      <c r="Y27">
         <f>[1]Internal_forces!$B$47</f>
         <v>-48891.349792480469</v>
       </c>
